--- a/Clients/CountifyExcel/SimpleLib.xlsx
+++ b/Clients/CountifyExcel/SimpleLib.xlsx
@@ -388,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="e">
-        <f ca="1">_xll.cfysl_Adder("my_adder",1)</f>
+        <f ca="1">_xll.cfysl_Adder(,"my_adder",,,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -397,7 +397,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="e">
-        <f ca="1">_xll.cfysl_AdderAdd(C3,2)</f>
+        <f ca="1">_xll.cfysl_AdderAdd(,C3,2)</f>
         <v>#NAME?</v>
       </c>
     </row>
